--- a/Dataset_for_test.xlsx
+++ b/Dataset_for_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\goldanat@post.bgu.ac.il 2022-12-28 12 50\Courses\אריאל\כריה וניתוח נתונים מתקדם\מטלות\הגשות מטלה 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://msmailarielac-my.sharepoint.com/personal/binyamin_yagoda_msmail_ariel_ac_il/Documents/לימודים תעונ/שנה ג/כרייה וניתוח נתונים/מטלות/DM_hw_FinalProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32AFEF6-7FB9-4CE0-A43F-014F6E7BC376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{D32AFEF6-7FB9-4CE0-A43F-014F6E7BC376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63CBA32D-887D-4F12-ACA1-65FF983DE427}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-5280" windowWidth="29040" windowHeight="15720" xr2:uid="{8E137658-D0EC-4DA3-B8C8-CAB0CB0DE60E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8E137658-D0EC-4DA3-B8C8-CAB0CB0DE60E}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="112">
   <si>
     <t>פתח תקווה</t>
   </si>
@@ -177,9 +177,6 @@
   </si>
   <si>
     <t>אין סורגים</t>
-  </si>
-  <si>
-    <t>חדש מקבלן</t>
   </si>
   <si>
     <t>יש ממ״ד</t>
@@ -302,9 +299,6 @@
     <t xml:space="preserve"> רמת בית הכרם</t>
   </si>
   <si>
-    <t>₪4,850,000TOP10 במדד המתווכים</t>
-  </si>
-  <si>
     <t xml:space="preserve"> קומה 1 מתוך 1</t>
   </si>
   <si>
@@ -378,20 +372,24 @@
   </si>
   <si>
     <t xml:space="preserve">description </t>
+  </si>
+  <si>
+    <t>חדש</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;₪&quot;#,##0;[Red]\-&quot;₪&quot;#,##0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;₪&quot;\ #,##0;[Red]&quot;₪&quot;\ \-#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;₪&quot;#,##0;[Red]\-&quot;₪&quot;#,##0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -443,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -451,7 +449,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -468,6 +466,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -786,87 +787,87 @@
   <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>112</v>
-      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -935,7 +936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1006,7 +1007,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1075,7 +1076,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -1144,7 +1145,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
@@ -1188,7 +1189,7 @@
         <v>32</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>33</v>
@@ -1197,7 +1198,7 @@
         <v>34</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S6" s="4" t="s">
         <v>36</v>
@@ -1206,13 +1207,13 @@
         <v>45689</v>
       </c>
       <c r="U6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="W6" s="4" t="s">
-        <v>50</v>
-      </c>
     </row>
-    <row r="7" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>38</v>
       </c>
@@ -1220,19 +1221,19 @@
         <v>10</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="F7" s="4">
         <v>10</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H7" s="4">
         <v>3730000</v>
@@ -1241,7 +1242,7 @@
         <v>6</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>44</v>
@@ -1262,13 +1263,13 @@
         <v>33</v>
       </c>
       <c r="Q7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="S7" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="T7" s="5">
         <v>45323</v>
@@ -1277,10 +1278,10 @@
         <v>6</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1294,11 +1295,11 @@
         <v>52</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H8" s="1">
         <v>1870000</v>
@@ -1307,7 +1308,7 @@
         <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K8" s="1" t="b">
         <v>1</v>
@@ -1344,28 +1345,28 @@
       </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="F9" s="1">
         <v>342</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H9" s="1">
         <v>2290000</v>
@@ -1374,7 +1375,7 @@
         <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>29</v>
@@ -1386,10 +1387,10 @@
         <v>46</v>
       </c>
       <c r="N9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>33</v>
@@ -1404,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>7</v>
@@ -1413,28 +1414,28 @@
         <v>12</v>
       </c>
       <c r="W9" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H10" s="1">
         <v>3150000</v>
@@ -1443,7 +1444,7 @@
         <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K10" s="1" t="b">
         <v>1</v>
@@ -1458,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P10" s="1" t="b">
         <v>1</v>
@@ -1480,12 +1481,12 @@
       </c>
       <c r="V10" s="1"/>
       <c r="W10" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="6" t="s">
-        <v>79</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>10</v>
@@ -1497,13 +1498,13 @@
         <v>120</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F11" s="6">
         <v>20</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="6">
         <v>1430000</v>
@@ -1512,7 +1513,7 @@
         <v>3</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K11" s="6" t="b">
         <v>0</v>
@@ -1542,17 +1543,17 @@
         <v>0</v>
       </c>
       <c r="T11" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U11" s="6" t="s">
         <v>6</v>
       </c>
       <c r="V11" s="7"/>
       <c r="W11" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1560,26 +1561,26 @@
         <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="H12" s="9">
+        <v>4850000</v>
       </c>
       <c r="I12" s="1">
         <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>22</v>
@@ -1612,7 +1613,7 @@
         <v>6</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V12" s="1"/>
       <c r="W12" s="1" t="s">
